--- a/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T18:04:52+00:00</t>
+    <t>2023-10-05T14:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:03:16+00:00</t>
+    <t>2023-10-05T14:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:18:17+00:00</t>
+    <t>2023-10-05T14:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:35:20+00:00</t>
+    <t>2023-10-05T14:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:43:15+00:00</t>
+    <t>2023-10-05T14:49:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:49:24+00:00</t>
+    <t>2023-10-05T14:58:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:58:16+00:00</t>
+    <t>2023-10-17T09:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The placer's software creates the RequestOrchestration when (re)ordering medication.</t>
+    <t>Linked Care Profile for the overall order. The LINCA Order serves as container for the individual placements. The placer's software creates the RequestOrchestration when (re)ordering medication.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -165,7 +165,7 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
+    <t>LinkedCare order ID, assigned by Linked Care FHIR server</t>
   </si>
   <si>
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
@@ -469,7 +469,7 @@
     <t>RequestOrchestration.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+    <t>Must be set to "active" when posting a new order. Assigned by Linked Care FHIR server in the other cases. Possible values: active (default), revoked (if the RequestOrchestration has been deleted in its entirety), completed (when all chains of associated OrderMedicationRequests have entered terminal state)</t>
   </si>
   <si>
     <t>The current state of the request. For request orchestrations, the status reflects the status of all the requests in the orchestration.</t>
@@ -494,7 +494,7 @@
 </t>
   </si>
   <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>The intent of a LINCARequestOrchestration is always to order medications.</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
